--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42973,6 +42973,41 @@
         <v>672600</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1291400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43008,6 +43008,41 @@
         <v>1291400</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>2100100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43043,6 +43043,41 @@
         <v>2100100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>993200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43078,6 +43078,41 @@
         <v>993200</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1064200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43113,6 +43113,41 @@
         <v>1064200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1098100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43148,6 +43148,41 @@
         <v>1098100</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>1514100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43183,6 +43183,41 @@
         <v>1514100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>3994300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43218,6 +43218,41 @@
         <v>3994300</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>3695300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43253,6 +43253,41 @@
         <v>3695300</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>2759000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43288,6 +43288,41 @@
         <v>2759000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>6076800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43323,6 +43323,41 @@
         <v>6076800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>3676600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43358,6 +43358,41 @@
         <v>3676600</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>899500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43393,6 +43393,76 @@
         <v>899500</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>5489300</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>7554000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43463,6 +43463,76 @@
         <v>7554000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>4531900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>4658200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43533,6 +43533,41 @@
         <v>4658200</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>3924300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43568,6 +43568,41 @@
         <v>3924300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>3374000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43603,6 +43603,41 @@
         <v>3374000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>4249500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43638,6 +43638,41 @@
         <v>4249500</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>2468900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43673,6 +43673,76 @@
         <v>2468900</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1546700</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>989500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43743,6 +43743,41 @@
         <v>989500</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>10295700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43778,6 +43778,41 @@
         <v>10295700</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>3021100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1816"/>
+  <dimension ref="A1:I1817"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63938,6 +63938,41 @@
         <v>3021100</v>
       </c>
     </row>
+    <row r="1817">
+      <c r="A1817" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1817" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1817" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1817" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1817" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>3109800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1817"/>
+  <dimension ref="A1:I1818"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63973,6 +63973,41 @@
         <v>3109800</v>
       </c>
     </row>
+    <row r="1818">
+      <c r="A1818" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1818" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1818" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1818" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G1818" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>2581900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1818"/>
+  <dimension ref="A1:I1819"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64008,6 +64008,41 @@
         <v>2581900</v>
       </c>
     </row>
+    <row r="1819">
+      <c r="A1819" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1819" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1819" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1819" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>3872700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1819"/>
+  <dimension ref="A1:I1820"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64043,6 +64043,41 @@
         <v>3872700</v>
       </c>
     </row>
+    <row r="1820">
+      <c r="A1820" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1820" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1820" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1820" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>4171600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1820"/>
+  <dimension ref="A1:I1821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64078,6 +64078,41 @@
         <v>4171600</v>
       </c>
     </row>
+    <row r="1821">
+      <c r="A1821" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1821" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1821" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1821" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>10280900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1821"/>
+  <dimension ref="A1:I1822"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64113,6 +64113,41 @@
         <v>10280900</v>
       </c>
     </row>
+    <row r="1822">
+      <c r="A1822" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1822" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1822" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1822" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>3541500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1822"/>
+  <dimension ref="A1:I1823"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64148,6 +64148,41 @@
         <v>3541500</v>
       </c>
     </row>
+    <row r="1823">
+      <c r="A1823" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1823" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1823" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1823" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>2662700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1823"/>
+  <dimension ref="A1:I1824"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64183,6 +64183,41 @@
         <v>2662700</v>
       </c>
     </row>
+    <row r="1824">
+      <c r="A1824" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1824" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1824" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1824" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>4625200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1824"/>
+  <dimension ref="A1:I1825"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64218,6 +64218,41 @@
         <v>4625200</v>
       </c>
     </row>
+    <row r="1825">
+      <c r="A1825" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1825" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1825" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1825" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>3847600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1825"/>
+  <dimension ref="A1:I1826"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64253,6 +64253,41 @@
         <v>3847600</v>
       </c>
     </row>
+    <row r="1826">
+      <c r="A1826" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1826" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1826" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1826" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>4643400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1826"/>
+  <dimension ref="A1:I1827"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64288,6 +64288,41 @@
         <v>4643400</v>
       </c>
     </row>
+    <row r="1827">
+      <c r="A1827" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1827" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1827" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1827" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G1827" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>2254800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1827"/>
+  <dimension ref="A1:I1828"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64323,6 +64323,41 @@
         <v>2254800</v>
       </c>
     </row>
+    <row r="1828">
+      <c r="A1828" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1828" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1828" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1828" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G1828" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>4873800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1828"/>
+  <dimension ref="A1:I1829"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64358,6 +64358,41 @@
         <v>4873800</v>
       </c>
     </row>
+    <row r="1829">
+      <c r="A1829" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1829" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1829" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1829" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G1829" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>6804300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1829"/>
+  <dimension ref="A1:I1830"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64393,6 +64393,41 @@
         <v>6804300</v>
       </c>
     </row>
+    <row r="1830">
+      <c r="A1830" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1830" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1830" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1830" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1830" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>3645200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1830"/>
+  <dimension ref="A1:I1831"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64428,6 +64428,41 @@
         <v>3645200</v>
       </c>
     </row>
+    <row r="1831">
+      <c r="A1831" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1831" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1831" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1831" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1831" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G1831" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I1831" t="n">
+        <v>1522500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1831"/>
+  <dimension ref="A1:I1832"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64463,6 +64463,41 @@
         <v>1522500</v>
       </c>
     </row>
+    <row r="1832">
+      <c r="A1832" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1832" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1832" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1832" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F1832" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G1832" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I1832" t="n">
+        <v>7564700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1832"/>
+  <dimension ref="A1:I1833"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64498,6 +64498,41 @@
         <v>7564700</v>
       </c>
     </row>
+    <row r="1833">
+      <c r="A1833" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1833" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1833" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1833" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1833" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G1833" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I1833" t="n">
+        <v>14595000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1833"/>
+  <dimension ref="A1:I1834"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64533,6 +64533,41 @@
         <v>14595000</v>
       </c>
     </row>
+    <row r="1834">
+      <c r="A1834" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1834" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1834" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1834" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F1834" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1834" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1834" t="n">
+        <v>4945700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1834"/>
+  <dimension ref="A1:I1835"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64568,6 +64568,41 @@
         <v>4945700</v>
       </c>
     </row>
+    <row r="1835">
+      <c r="A1835" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1835" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1835" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1835" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F1835" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G1835" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1835" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I1835" t="n">
+        <v>3291900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1835"/>
+  <dimension ref="A1:I1836"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64603,6 +64603,41 @@
         <v>3291900</v>
       </c>
     </row>
+    <row r="1836">
+      <c r="A1836" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1836" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1836" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1836" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F1836" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1836" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1836" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1836" t="n">
+        <v>4864600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1836"/>
+  <dimension ref="A1:I1837"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64638,6 +64638,41 @@
         <v>4864600</v>
       </c>
     </row>
+    <row r="1837">
+      <c r="A1837" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1837" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1837" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1837" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1837" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1837" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H1837" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I1837" t="n">
+        <v>5845200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1837"/>
+  <dimension ref="A1:I1838"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64673,6 +64673,41 @@
         <v>5845200</v>
       </c>
     </row>
+    <row r="1838">
+      <c r="A1838" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1838" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1838" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1838" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F1838" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1838" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H1838" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I1838" t="n">
+        <v>8132800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1838"/>
+  <dimension ref="A1:I1839"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64708,6 +64708,41 @@
         <v>8132800</v>
       </c>
     </row>
+    <row r="1839">
+      <c r="A1839" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1839" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1839" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1839" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F1839" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G1839" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1839" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1839" t="n">
+        <v>7424800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1839"/>
+  <dimension ref="A1:I1840"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64743,6 +64743,41 @@
         <v>7424800</v>
       </c>
     </row>
+    <row r="1840">
+      <c r="A1840" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1840" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1840" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1840" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F1840" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1840" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H1840" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1840" t="n">
+        <v>7552100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1840"/>
+  <dimension ref="A1:I1841"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64778,6 +64778,41 @@
         <v>7552100</v>
       </c>
     </row>
+    <row r="1841">
+      <c r="A1841" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1841" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1841" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1841" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F1841" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G1841" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1841" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1841" t="n">
+        <v>13200900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1841"/>
+  <dimension ref="A1:I1843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64813,6 +64813,76 @@
         <v>13200900</v>
       </c>
     </row>
+    <row r="1842">
+      <c r="A1842" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1842" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1842" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1842" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F1842" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1842" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H1842" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1842" t="n">
+        <v>16400700</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1843" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1843" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1843" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1843" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G1843" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1843" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1843" t="n">
+        <v>11460500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1843"/>
+  <dimension ref="A1:I1844"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64883,6 +64883,41 @@
         <v>11460500</v>
       </c>
     </row>
+    <row r="1844">
+      <c r="A1844" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1844" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1844" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1844" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F1844" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1844" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1844" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1844" t="n">
+        <v>9816100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1844"/>
+  <dimension ref="A1:I1847"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64918,6 +64918,111 @@
         <v>9816100</v>
       </c>
     </row>
+    <row r="1845">
+      <c r="A1845" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1845" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1845" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1845" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1845" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G1845" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H1845" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I1845" t="n">
+        <v>10732600</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1846" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1846" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1846" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1846" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G1846" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1846" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I1846" t="n">
+        <v>63833800</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1847" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1847" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1847" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F1847" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1847" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H1847" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I1847" t="n">
+        <v>40308100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1847"/>
+  <dimension ref="A1:I1848"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65023,6 +65023,41 @@
         <v>40308100</v>
       </c>
     </row>
+    <row r="1848">
+      <c r="A1848" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1848" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1848" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1848" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1848" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1848" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1848" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1848" t="n">
+        <v>33207000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1848"/>
+  <dimension ref="A1:I1849"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65058,6 +65058,41 @@
         <v>33207000</v>
       </c>
     </row>
+    <row r="1849">
+      <c r="A1849" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1849" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1849" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1849" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1849" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G1849" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="H1849" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I1849" t="n">
+        <v>11650500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6399.xlsx
+++ b/data/6399.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1849"/>
+  <dimension ref="A1:I1852"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65093,6 +65093,111 @@
         <v>11650500</v>
       </c>
     </row>
+    <row r="1850">
+      <c r="A1850" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1850" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1850" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1850" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F1850" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G1850" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="H1850" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="I1850" t="n">
+        <v>6339500</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1851" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1851" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1851" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="F1851" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G1851" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1851" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="I1851" t="n">
+        <v>4566000</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1852" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="D1852" t="inlineStr">
+        <is>
+          <t>ASTRO</t>
+        </is>
+      </c>
+      <c r="E1852" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F1852" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1852" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H1852" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="I1852" t="n">
+        <v>8916800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
